--- a/biology/Zoologie/Cephalotes_hirsutus/Cephalotes_hirsutus.xlsx
+++ b/biology/Zoologie/Cephalotes_hirsutus/Cephalotes_hirsutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes hirsutus est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes hirsutus est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native du Mexique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native du Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes hirsutus a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[6] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes hirsutus a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin hirsutus, « mal coiffé », fait référence à sa pilosité abondante[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin hirsutus, « mal coiffé », fait référence à sa pilosité abondante.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
